--- a/test_files/slide_lists_demo.xlsx
+++ b/test_files/slide_lists_demo.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-4470" yWindow="-15510" windowWidth="20070" windowHeight="12465" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="23595" yWindow="-14265" windowWidth="21600" windowHeight="11145" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="slides" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pages" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -86,6 +86,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -95,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -103,10 +114,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -486,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,94 +510,104 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>root</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>file</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>page</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>rotation</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>mirror</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>zoom_point</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="6" t="inlineStr">
         <is>
           <t>crop</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="6" t="inlineStr">
         <is>
           <t>fig_type</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="6" t="inlineStr">
         <is>
           <t>panel_size</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="6" t="inlineStr">
         <is>
           <t>add_inset</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="6" t="inlineStr">
         <is>
           <t>inset_size</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="6" t="inlineStr">
         <is>
           <t>zoom_real_size</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="6" t="inlineStr">
         <is>
           <t>scale_bar</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="6" t="inlineStr">
         <is>
           <t>inset_scale_bar</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="6" t="inlineStr">
         <is>
           <t>sb_label</t>
         </is>
       </c>
+      <c r="S1" s="6" t="inlineStr">
+        <is>
+          <t>apply_wb</t>
+        </is>
+      </c>
+      <c r="T1" s="6" t="inlineStr">
+        <is>
+          <t>label_size</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -622,9 +647,11 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -664,9 +691,11 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,7 +710,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Type: default</t>
+          <t>Default</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -702,9 +731,11 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -719,7 +750,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Type: inverted</t>
+          <t>Inverted</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -744,9 +775,11 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -784,9 +817,11 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -828,9 +863,11 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -845,7 +882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Type: default</t>
+          <t>Default no wb</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -854,41 +891,25 @@
       <c r="F8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="n">
-        <v>295.0251510259856</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>(0.8936627138253562, 0.524015281048121)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>((0.8596848746869632, 0.4929537796954805), 0.48457792207792205, 0.39772727272727276)</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>500</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>150</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -903,36 +924,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Type: inverted</t>
+          <t>Default Crop</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2733842815076</v>
+        <v>295.0251510259856</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>(0.7381058729621324, 0.23382440965871715)</t>
+          <t>(0.8936627138253562, 0.524015281048121)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>((0.7074379101901366, 0.24633581099008472), 0.3993506493506494, 0.3896103896103897)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>inverted</t>
-        </is>
-      </c>
+          <t>((0.8596848746869632, 0.4929537796954805), 0.48457792207792205, 0.39772727272727276)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -940,17 +957,19 @@
         <v>500</v>
       </c>
       <c r="P9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q9" t="n">
         <v>150</v>
       </c>
-      <c r="Q9" t="n">
-        <v>5000</v>
-      </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -960,25 +979,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OS-2.ndpi</t>
+          <t>OS-1.ndpi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Type: default</t>
+          <t>Inverted Crop</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>133.2733842815076</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(0.7381058729621324, 0.23382440965871715)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>((0.7074379101901366, 0.24633581099008472), 0.3993506493506494, 0.3896103896103897)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>inverted</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -986,17 +1021,19 @@
         <v>500</v>
       </c>
       <c r="P10" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q10" t="n">
         <v>5000</v>
       </c>
-      <c r="Q10" t="n">
-        <v>150</v>
-      </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1011,24 +1048,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Type: inverted</t>
+          <t>Default</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>inverted</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -1036,13 +1069,225 @@
         <v>500</v>
       </c>
       <c r="P11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q11" t="n">
         <v>150</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>test_files</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>OS-2.ndpi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Inverted</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>inverted</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>500</v>
+      </c>
+      <c r="P12" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q12" t="n">
         <v>5000</v>
       </c>
-      <c r="R11" t="n">
-        <v>1</v>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>test_files</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OS-2.ndpi</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Default no wb</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>500</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>150</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>test_files</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OS-2.ndpi</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Inverted no wb</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>inverted</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>500</v>
+      </c>
+      <c r="P14" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>test_files</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OS-1.ndpi</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>(1200,1200)</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1301,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -1128,9 +1373,9 @@
           <t>OS-1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>PathOVERVIEW example page 0</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PATHOverview example page 0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1157,9 +1402,9 @@
           <t>OS-2</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PathOVERVIEW example page 1</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PATHOverview example page 1</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1172,6 +1417,33 @@
       </c>
       <c r="J3" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>test_files\OS1_single.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(4,4)</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/slide_lists_demo.xlsx
+++ b/test_files/slide_lists_demo.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2145" yWindow="-19455" windowWidth="28800" windowHeight="18750" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="slides" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pages" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -95,15 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -495,114 +492,114 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>root</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>file</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>rel_path</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>page</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>order</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>rotation</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>mirror</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>zoom_point</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>crop</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>fig_type</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>panel_size</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>add_inset</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>inset_size</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>zoom_real_size</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>scale_bar</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>inset_scale_bar</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>sb_label</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>use_wb</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>label_size</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -655,7 +652,7 @@
       <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -708,7 +705,7 @@
       <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -757,7 +754,7 @@
       <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -810,7 +807,7 @@
       <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -861,7 +858,7 @@
       <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -916,7 +913,7 @@
       <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -967,7 +964,7 @@
       <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1036,7 +1033,7 @@
       <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1109,7 +1106,7 @@
       <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1163,12 +1160,10 @@
         <v>1</v>
       </c>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="n">
-        <v>24</v>
-      </c>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -1226,12 +1221,10 @@
         <v>1</v>
       </c>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="n">
-        <v>24</v>
-      </c>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -1287,12 +1280,10 @@
       <c r="U13" t="n">
         <v>0</v>
       </c>
-      <c r="V13" t="n">
-        <v>24</v>
-      </c>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -1352,12 +1343,10 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
-      <c r="V14" t="n">
-        <v>24</v>
-      </c>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -1407,9 +1396,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="n">
-        <v>24</v>
-      </c>
+      <c r="V15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
